--- a/parser/menu.xlsx
+++ b/parser/menu.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="570" windowWidth="26655" windowHeight="12375"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>菜單編號</t>
   </si>
@@ -116,27 +119,53 @@
   </si>
   <si>
     <t>豬里肌肉彈口</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Songti TC"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -159,6 +188,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -173,44 +203,328 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -242,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -274,24 +588,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -306,24 +620,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>1.0</v>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2">
-        <v>160.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
@@ -338,24 +652,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>3.0</v>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2">
-        <v>160.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
@@ -371,6 +685,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/parser/menu.xlsx
+++ b/parser/menu.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berlino\Desktop\EXPLOXE\hungry\parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="570" windowWidth="26655" windowHeight="12375"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>菜單編號</t>
   </si>
@@ -139,13 +144,271 @@
   <si>
     <t>160</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花壽司</t>
+  </si>
+  <si>
+    <t>綿密鮮蟹肉</t>
+  </si>
+  <si>
+    <t>酪梨</t>
+  </si>
+  <si>
+    <t>玉子燒</t>
+  </si>
+  <si>
+    <t>二十種狂餡料</t>
+  </si>
+  <si>
+    <t>鮭魚壽司</t>
+  </si>
+  <si>
+    <t>空運鮭魚腹</t>
+  </si>
+  <si>
+    <t>鮮山葵</t>
+  </si>
+  <si>
+    <t>釀醬油</t>
+  </si>
+  <si>
+    <t>炭火燒壽司米</t>
+  </si>
+  <si>
+    <t>綜合握壽司</t>
+  </si>
+  <si>
+    <t>厚花枝</t>
+  </si>
+  <si>
+    <t>熟白蝦</t>
+  </si>
+  <si>
+    <t>當季白旗魚</t>
+  </si>
+  <si>
+    <t>親子丼</t>
+  </si>
+  <si>
+    <t>屏東音樂蛋</t>
+  </si>
+  <si>
+    <t>放山雞</t>
+  </si>
+  <si>
+    <t>池上米</t>
+  </si>
+  <si>
+    <t>薄鹽釀醬油</t>
+  </si>
+  <si>
+    <t>鮭魚親子丼</t>
+  </si>
+  <si>
+    <t>炙燒紅鮭魚</t>
+  </si>
+  <si>
+    <t>燒玉子</t>
+  </si>
+  <si>
+    <t>米醋飯</t>
+  </si>
+  <si>
+    <t>三特等級魚卵</t>
+  </si>
+  <si>
+    <t>烏龍麵</t>
+  </si>
+  <si>
+    <t>手打烏龍麵</t>
+  </si>
+  <si>
+    <t>秘沾醬</t>
+  </si>
+  <si>
+    <t>蕎麥茶</t>
+  </si>
+  <si>
+    <t>半熟溏心蛋</t>
+  </si>
+  <si>
+    <t>天婦羅蕎麥麵</t>
+  </si>
+  <si>
+    <t>日式薄麵衣</t>
+  </si>
+  <si>
+    <t>炸蔬食</t>
+  </si>
+  <si>
+    <t>汁雞塊</t>
+  </si>
+  <si>
+    <t>一比九揉製麵</t>
+  </si>
+  <si>
+    <t>鮮蝦煎餃</t>
+  </si>
+  <si>
+    <t>黃金脆底煎</t>
+  </si>
+  <si>
+    <t>草蝦仁</t>
+  </si>
+  <si>
+    <t>鮮魚漿</t>
+  </si>
+  <si>
+    <t>祖傳手擀麵皮</t>
+  </si>
+  <si>
+    <t>鮭魚手卷</t>
+  </si>
+  <si>
+    <t>鹽燒鮭魚肚</t>
+  </si>
+  <si>
+    <t>嫩鮮疏</t>
+  </si>
+  <si>
+    <t>佐醬料</t>
+  </si>
+  <si>
+    <t>十六島海苔片</t>
+  </si>
+  <si>
+    <t>鰻魚手卷</t>
+  </si>
+  <si>
+    <t>溫室養殖鰻</t>
+  </si>
+  <si>
+    <t>鮮萵苣</t>
+  </si>
+  <si>
+    <t>蒲燒醬</t>
+  </si>
+  <si>
+    <t>牛奶紙火鍋</t>
+  </si>
+  <si>
+    <t>紐西蘭牛奶</t>
+  </si>
+  <si>
+    <t>當季菜</t>
+  </si>
+  <si>
+    <t>菇菇菇</t>
+  </si>
+  <si>
+    <t>低溫熟成豬肉</t>
+  </si>
+  <si>
+    <t>日式鮮高湯</t>
+  </si>
+  <si>
+    <t>砂糖鹽</t>
+  </si>
+  <si>
+    <t>薄醬油</t>
+  </si>
+  <si>
+    <t>屏東莫札特蛋</t>
+  </si>
+  <si>
+    <t>叉燒味噌拉麵</t>
+  </si>
+  <si>
+    <t>日式叉燒</t>
+  </si>
+  <si>
+    <t>鮮豆芽</t>
+  </si>
+  <si>
+    <t>溏心蛋</t>
+  </si>
+  <si>
+    <t>昆布味噌高湯</t>
+  </si>
+  <si>
+    <t>洋蔥沙拉</t>
+  </si>
+  <si>
+    <t>和風拌醬汁</t>
+  </si>
+  <si>
+    <t>紅洋蔥</t>
+  </si>
+  <si>
+    <t>白洋蔥</t>
+  </si>
+  <si>
+    <t>清脆爽口解膩</t>
+  </si>
+  <si>
+    <t>綜合串烤</t>
+  </si>
+  <si>
+    <t>雙面炙燒烤</t>
+  </si>
+  <si>
+    <t>鮮蔬菜</t>
+  </si>
+  <si>
+    <t>綜合豬羊牛雞</t>
+  </si>
+  <si>
+    <t>抹茶紅豆</t>
+  </si>
+  <si>
+    <t>原粒米麻糬</t>
+  </si>
+  <si>
+    <t>大紅豆</t>
+  </si>
+  <si>
+    <t>片栗粉</t>
+  </si>
+  <si>
+    <t>玉露茶葉抹茶</t>
+  </si>
+  <si>
+    <t>章魚燒</t>
+  </si>
+  <si>
+    <t>口感大章魚</t>
+  </si>
+  <si>
+    <t>海苔粉</t>
+  </si>
+  <si>
+    <t>雙色醬</t>
+  </si>
+  <si>
+    <t>腹後柴魚片</t>
+  </si>
+  <si>
+    <t>壽喜鍋</t>
+  </si>
+  <si>
+    <t>五花牛切片</t>
+  </si>
+  <si>
+    <t>醬油底</t>
+  </si>
+  <si>
+    <t>蔥薑蒜</t>
+  </si>
+  <si>
+    <t>二小時醬醃製</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -167,8 +430,20 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +456,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,16 +486,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -224,6 +553,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -589,22 +921,22 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -621,67 +953,643 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11">
+        <v>160</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11">
+        <v>210</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11">
+        <v>260</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="11">
+        <v>230</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11">
+        <v>250</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11">
+        <v>160</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="11">
+        <v>230</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11">
+        <v>120</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="11">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11">
+        <v>80</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="11">
+        <v>300</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11">
+        <v>70</v>
+      </c>
+      <c r="D17" s="11">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="11">
+        <v>230</v>
+      </c>
+      <c r="D18" s="11">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="11">
+        <v>60</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>8</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11">
+        <v>90</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="11">
+        <v>90</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="11">
+        <v>120</v>
+      </c>
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="11">
+        <v>300</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
